--- a/outputs-HGR-r202/o__Propionibacteriales.xlsx
+++ b/outputs-HGR-r202/o__Propionibacteriales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,17 +469,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1001.fa</t>
+          <t>even_MAG-GUT1000.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.06669704095088635</v>
+        <v>0.069645485019036</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9333029590491136</v>
+        <v>0.930354514980964</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9333029590491136</v>
+        <v>0.930354514980964</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -495,17 +495,17 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1054.fa</t>
+          <t>even_MAG-GUT1001.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06733869421944783</v>
+        <v>0.06669704095088635</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9326613057805522</v>
+        <v>0.9333029590491136</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9326613057805522</v>
+        <v>0.9333029590491136</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -521,17 +521,17 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1059.fa</t>
+          <t>even_MAG-GUT1026.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06679080630319634</v>
+        <v>0.06784893507348688</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9332091936968037</v>
+        <v>0.9321510649265131</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9332091936968037</v>
+        <v>0.9321510649265131</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -547,17 +547,17 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1065.fa</t>
+          <t>even_MAG-GUT1033.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06595914217864352</v>
+        <v>0.06744223285165563</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9340408578213565</v>
+        <v>0.9325577671483444</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9340408578213565</v>
+        <v>0.9325577671483444</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -573,17 +573,17 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1089.fa</t>
+          <t>even_MAG-GUT1054.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.06602983016245645</v>
+        <v>0.06733869421944783</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9339701698375436</v>
+        <v>0.9326613057805522</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9339701698375436</v>
+        <v>0.9326613057805522</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -599,17 +599,17 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1122.fa</t>
+          <t>even_MAG-GUT1059.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.06728037641350537</v>
+        <v>0.06679080630319634</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9327196235864946</v>
+        <v>0.9332091936968037</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9327196235864946</v>
+        <v>0.9332091936968037</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -625,17 +625,17 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1128.fa</t>
+          <t>even_MAG-GUT1065.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.06799430677870144</v>
+        <v>0.06595914217864352</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9320056932212986</v>
+        <v>0.9340408578213565</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9320056932212986</v>
+        <v>0.9340408578213565</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -651,17 +651,17 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1131.fa</t>
+          <t>even_MAG-GUT1089.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.06669602256895335</v>
+        <v>0.06602983016245645</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9333039774310466</v>
+        <v>0.9339701698375436</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9333039774310466</v>
+        <v>0.9339701698375436</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -677,17 +677,17 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1133.fa</t>
+          <t>even_MAG-GUT1122.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.06713001325050794</v>
+        <v>0.06728037641350537</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9328699867494921</v>
+        <v>0.9327196235864946</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9328699867494921</v>
+        <v>0.9327196235864946</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -703,17 +703,17 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1135.fa</t>
+          <t>even_MAG-GUT1128.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.06648459915477845</v>
+        <v>0.06799430677870144</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9335154008452216</v>
+        <v>0.9320056932212986</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9335154008452216</v>
+        <v>0.9320056932212986</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -729,17 +729,17 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1139.fa</t>
+          <t>even_MAG-GUT1131.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.06821415784695628</v>
+        <v>0.06669602256895335</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9317858421530437</v>
+        <v>0.9333039774310466</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9317858421530437</v>
+        <v>0.9333039774310466</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -755,17 +755,17 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1143.fa</t>
+          <t>even_MAG-GUT1133.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.06680266890158326</v>
+        <v>0.06713001325050794</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9331973310984167</v>
+        <v>0.9328699867494921</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9331973310984167</v>
+        <v>0.9328699867494921</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -781,17 +781,17 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1149.fa</t>
+          <t>even_MAG-GUT1135.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.06636493444046065</v>
+        <v>0.06648459915477845</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9336350655595393</v>
+        <v>0.9335154008452216</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9336350655595393</v>
+        <v>0.9335154008452216</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -807,17 +807,17 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1157.fa</t>
+          <t>even_MAG-GUT1139.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.06704547742813194</v>
+        <v>0.06821415784695628</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9329545225718681</v>
+        <v>0.9317858421530437</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9329545225718681</v>
+        <v>0.9317858421530437</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -833,17 +833,17 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1249.fa</t>
+          <t>even_MAG-GUT1143.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.06720358740888621</v>
+        <v>0.06680266890158326</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9327964125911138</v>
+        <v>0.9331973310984167</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9327964125911138</v>
+        <v>0.9331973310984167</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -859,17 +859,17 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1258.fa</t>
+          <t>even_MAG-GUT1149.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.06743068998071011</v>
+        <v>0.06636493444046065</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9325693100192899</v>
+        <v>0.9336350655595393</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9325693100192899</v>
+        <v>0.9336350655595393</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -885,17 +885,17 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1265.fa</t>
+          <t>even_MAG-GUT1157.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0673167693076725</v>
+        <v>0.06704547742813194</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9326832306923275</v>
+        <v>0.9329545225718681</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9326832306923275</v>
+        <v>0.9329545225718681</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -911,17 +911,17 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1274.fa</t>
+          <t>even_MAG-GUT1249.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.06635922927054316</v>
+        <v>0.06720358740888621</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9336407707294568</v>
+        <v>0.9327964125911138</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9336407707294568</v>
+        <v>0.9327964125911138</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -937,17 +937,17 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1282.fa</t>
+          <t>even_MAG-GUT1258.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.06665277108596457</v>
+        <v>0.06743068998071011</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9333472289140354</v>
+        <v>0.9325693100192899</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9333472289140354</v>
+        <v>0.9325693100192899</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -963,17 +963,17 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1287.fa</t>
+          <t>even_MAG-GUT1265.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.06705818591221513</v>
+        <v>0.0673167693076725</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9329418140877849</v>
+        <v>0.9326832306923275</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9329418140877849</v>
+        <v>0.9326832306923275</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -989,17 +989,17 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1453.fa</t>
+          <t>even_MAG-GUT1274.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.06649965199988796</v>
+        <v>0.06635922927054316</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9335003480001121</v>
+        <v>0.9336407707294568</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9335003480001121</v>
+        <v>0.9336407707294568</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1015,17 +1015,17 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1485.fa</t>
+          <t>even_MAG-GUT1282.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.06997020288939781</v>
+        <v>0.06665277108596457</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9300297971106022</v>
+        <v>0.9333472289140354</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9300297971106022</v>
+        <v>0.9333472289140354</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1041,17 +1041,17 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1529.fa</t>
+          <t>even_MAG-GUT1287.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0660842061247735</v>
+        <v>0.06705818591221513</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9339157938752265</v>
+        <v>0.9329418140877849</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9339157938752265</v>
+        <v>0.9329418140877849</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1067,17 +1067,17 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1534.fa</t>
+          <t>even_MAG-GUT1453.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.06636403705690774</v>
+        <v>0.06649965199988796</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9336359629430923</v>
+        <v>0.9335003480001121</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9336359629430923</v>
+        <v>0.9335003480001121</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1093,17 +1093,17 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1537.fa</t>
+          <t>even_MAG-GUT1485.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.06558778084595918</v>
+        <v>0.06997020288939781</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9344122191540408</v>
+        <v>0.9300297971106022</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9344122191540408</v>
+        <v>0.9300297971106022</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1119,17 +1119,17 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1870.fa</t>
+          <t>even_MAG-GUT1529.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.06678001070715289</v>
+        <v>0.0660842061247735</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9332199892928471</v>
+        <v>0.9339157938752265</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9332199892928471</v>
+        <v>0.9339157938752265</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1145,17 +1145,17 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1873.fa</t>
+          <t>even_MAG-GUT1534.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.06823646070397871</v>
+        <v>0.06636403705690774</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9317635392960213</v>
+        <v>0.9336359629430923</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9317635392960213</v>
+        <v>0.9336359629430923</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1171,17 +1171,17 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1877.fa</t>
+          <t>even_MAG-GUT1537.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.06676090326462225</v>
+        <v>0.06558778084595918</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9332390967353777</v>
+        <v>0.9344122191540408</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9332390967353777</v>
+        <v>0.9344122191540408</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1197,17 +1197,17 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1881.fa</t>
+          <t>even_MAG-GUT1870.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.06647874190172798</v>
+        <v>0.06678001070715289</v>
       </c>
       <c r="C30" t="n">
-        <v>0.933521258098272</v>
+        <v>0.9332199892928471</v>
       </c>
       <c r="D30" t="n">
-        <v>0.933521258098272</v>
+        <v>0.9332199892928471</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1223,17 +1223,17 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1883.fa</t>
+          <t>even_MAG-GUT1873.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.06662295603786417</v>
+        <v>0.06823646070397871</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9333770439621358</v>
+        <v>0.9317635392960213</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9333770439621358</v>
+        <v>0.9317635392960213</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1249,17 +1249,17 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1912.fa</t>
+          <t>even_MAG-GUT1877.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.06664962286481102</v>
+        <v>0.06676090326462225</v>
       </c>
       <c r="C32" t="n">
-        <v>0.933350377135189</v>
+        <v>0.9332390967353777</v>
       </c>
       <c r="D32" t="n">
-        <v>0.933350377135189</v>
+        <v>0.9332390967353777</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1275,17 +1275,17 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48681.fa</t>
+          <t>even_MAG-GUT1881.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.06746613226929465</v>
+        <v>0.06647874190172798</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9325338677307053</v>
+        <v>0.933521258098272</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9325338677307053</v>
+        <v>0.933521258098272</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1301,17 +1301,17 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48721.fa</t>
+          <t>even_MAG-GUT1883.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.06661191401113964</v>
+        <v>0.06662295603786417</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9333880859888604</v>
+        <v>0.9333770439621358</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9333880859888604</v>
+        <v>0.9333770439621358</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1327,17 +1327,17 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48763.fa</t>
+          <t>even_MAG-GUT1912.fa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.06675279959229141</v>
+        <v>0.06664962286481102</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9332472004077086</v>
+        <v>0.933350377135189</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9332472004077086</v>
+        <v>0.933350377135189</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1353,17 +1353,17 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48801.fa</t>
+          <t>even_MAG-GUT48681.fa</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.06634089674838628</v>
+        <v>0.06746613226929465</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9336591032516137</v>
+        <v>0.9325338677307053</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9336591032516137</v>
+        <v>0.9325338677307053</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1379,17 +1379,17 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48852.fa</t>
+          <t>even_MAG-GUT48721.fa</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.06612020907255711</v>
+        <v>0.06661191401113964</v>
       </c>
       <c r="C37" t="n">
-        <v>0.933879790927443</v>
+        <v>0.9333880859888604</v>
       </c>
       <c r="D37" t="n">
-        <v>0.933879790927443</v>
+        <v>0.9333880859888604</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1405,17 +1405,17 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48995.fa</t>
+          <t>even_MAG-GUT48763.fa</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.07019166362071161</v>
+        <v>0.06675279959229141</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9298083363792884</v>
+        <v>0.9332472004077086</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9298083363792884</v>
+        <v>0.9332472004077086</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1431,17 +1431,17 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49058.fa</t>
+          <t>even_MAG-GUT48801.fa</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.0697755169638653</v>
+        <v>0.06634089674838628</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9302244830361347</v>
+        <v>0.9336591032516137</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9302244830361347</v>
+        <v>0.9336591032516137</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1457,17 +1457,17 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49261.fa</t>
+          <t>even_MAG-GUT48852.fa</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.06648054585373853</v>
+        <v>0.06612020907255711</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9335194541462615</v>
+        <v>0.933879790927443</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9335194541462615</v>
+        <v>0.933879790927443</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1483,17 +1483,17 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49394.fa</t>
+          <t>even_MAG-GUT48995.fa</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.06707156759768475</v>
+        <v>0.07019166362071161</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9329284324023153</v>
+        <v>0.9298083363792884</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9329284324023153</v>
+        <v>0.9298083363792884</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1509,17 +1509,17 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49423.fa</t>
+          <t>even_MAG-GUT49058.fa</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.06745480163583506</v>
+        <v>0.0697755169638653</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9325451983641649</v>
+        <v>0.9302244830361347</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9325451983641649</v>
+        <v>0.9302244830361347</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1535,17 +1535,17 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49507.fa</t>
+          <t>even_MAG-GUT49079.fa</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.06779877887875052</v>
+        <v>0.06613326817080334</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9322012211212495</v>
+        <v>0.9338667318291967</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9322012211212495</v>
+        <v>0.9338667318291967</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1561,17 +1561,17 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49537.fa</t>
+          <t>even_MAG-GUT49261.fa</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.06665726716060083</v>
+        <v>0.06648054585373853</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9333427328393992</v>
+        <v>0.9335194541462615</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9333427328393992</v>
+        <v>0.9335194541462615</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1587,17 +1587,17 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49543.fa</t>
+          <t>even_MAG-GUT49394.fa</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.06590464084544334</v>
+        <v>0.06707156759768475</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9340953591545567</v>
+        <v>0.9329284324023153</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9340953591545567</v>
+        <v>0.9329284324023153</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1613,17 +1613,17 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6247.fa</t>
+          <t>even_MAG-GUT49423.fa</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.06820783765302474</v>
+        <v>0.06745480163583506</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9317921623469753</v>
+        <v>0.9325451983641649</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9317921623469753</v>
+        <v>0.9325451983641649</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1639,17 +1639,17 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6251.fa</t>
+          <t>even_MAG-GUT49507.fa</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.06702941223817116</v>
+        <v>0.06779877887875052</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9329705877618288</v>
+        <v>0.9322012211212495</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9329705877618288</v>
+        <v>0.9322012211212495</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1665,17 +1665,17 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6256.fa</t>
+          <t>even_MAG-GUT49537.fa</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.06807916872098707</v>
+        <v>0.06665726716060083</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9319208312790129</v>
+        <v>0.9333427328393992</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9319208312790129</v>
+        <v>0.9333427328393992</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1691,17 +1691,17 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6261.fa</t>
+          <t>even_MAG-GUT49543.fa</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.06669993197097057</v>
+        <v>0.06590464084544334</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9333000680290294</v>
+        <v>0.9340953591545567</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9333000680290294</v>
+        <v>0.9340953591545567</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1717,17 +1717,17 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6265.fa</t>
+          <t>even_MAG-GUT6244.fa</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.06649715103813469</v>
+        <v>0.06697434810403191</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9335028489618653</v>
+        <v>0.9330256518959681</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9335028489618653</v>
+        <v>0.9330256518959681</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1743,17 +1743,17 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6273.fa</t>
+          <t>even_MAG-GUT6247.fa</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.06649715103813469</v>
+        <v>0.06820783765302474</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9335028489618653</v>
+        <v>0.9317921623469753</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9335028489618653</v>
+        <v>0.9317921623469753</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1769,17 +1769,17 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6286.fa</t>
+          <t>even_MAG-GUT6251.fa</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.06649715103813469</v>
+        <v>0.06702941223817116</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9335028489618653</v>
+        <v>0.9329705877618288</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9335028489618653</v>
+        <v>0.9329705877618288</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1795,17 +1795,17 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68245.fa</t>
+          <t>even_MAG-GUT6256.fa</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.06615230881882073</v>
+        <v>0.06807916872098707</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9338476911811793</v>
+        <v>0.9319208312790129</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9338476911811793</v>
+        <v>0.9319208312790129</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1821,17 +1821,17 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91259.fa</t>
+          <t>even_MAG-GUT6261.fa</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.06668743767770015</v>
+        <v>0.06669993197097057</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9333125623222999</v>
+        <v>0.9333000680290294</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9333125623222999</v>
+        <v>0.9333000680290294</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1847,17 +1847,17 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91528.fa</t>
+          <t>even_MAG-GUT6265.fa</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.06623016082804534</v>
+        <v>0.06649715103813469</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9337698391719547</v>
+        <v>0.9335028489618653</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9337698391719547</v>
+        <v>0.9335028489618653</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1873,17 +1873,17 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91549.fa</t>
+          <t>even_MAG-GUT6273.fa</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.0663076041132864</v>
+        <v>0.06649715103813469</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9336923958867136</v>
+        <v>0.9335028489618653</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9336923958867136</v>
+        <v>0.9335028489618653</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1899,17 +1899,17 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91835.fa</t>
+          <t>even_MAG-GUT6280.fa</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.06648629872642575</v>
+        <v>0.06681893360605284</v>
       </c>
       <c r="C57" t="n">
-        <v>0.9335137012735742</v>
+        <v>0.9331810663939472</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9335137012735742</v>
+        <v>0.9331810663939472</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1925,17 +1925,17 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91865.fa</t>
+          <t>even_MAG-GUT6286.fa</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.06665452891141954</v>
+        <v>0.06649715103813469</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9333454710885805</v>
+        <v>0.9335028489618653</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9333454710885805</v>
+        <v>0.9335028489618653</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1951,17 +1951,17 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT92079.fa</t>
+          <t>even_MAG-GUT6290.fa</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.06672829921552337</v>
+        <v>0.06681893360605284</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9332717007844766</v>
+        <v>0.9331810663939472</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9332717007844766</v>
+        <v>0.9331810663939472</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1977,17 +1977,17 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT92127.fa</t>
+          <t>even_MAG-GUT68245.fa</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.06627156426253356</v>
+        <v>0.06615230881882073</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9337284357374664</v>
+        <v>0.9338476911811793</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9337284357374664</v>
+        <v>0.9338476911811793</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2003,24 +2003,206 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT91259.fa</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.06668743767770015</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.9333125623222999</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.9333125623222999</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91528.fa</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.06623016082804534</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.9337698391719547</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.9337698391719547</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91549.fa</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.0663076041132864</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.9336923958867136</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.9336923958867136</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91835.fa</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.06648629872642575</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.9335137012735742</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.9335137012735742</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91865.fa</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.06665452891141954</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.9333454710885805</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.9333454710885805</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT92079.fa</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.06672829921552337</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.9332717007844766</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.9332717007844766</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT92127.fa</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.06627156426253356</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.9337284357374664</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.9337284357374664</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT988.fa</t>
         </is>
       </c>
-      <c r="B61" t="n">
+      <c r="B68" t="n">
         <v>0.06685162397489752</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C68" t="n">
         <v>0.9331483760251025</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D68" t="n">
         <v>0.9331483760251025</v>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>f__Propionibacteriaceae</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
         <is>
           <t>f__Propionibacteriaceae</t>
         </is>

--- a/outputs-HGR-r202/o__Propionibacteriales.xlsx
+++ b/outputs-HGR-r202/o__Propionibacteriales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -502,6 +512,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -523,6 +538,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -544,6 +564,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -565,6 +590,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -586,6 +616,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -607,6 +642,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -628,6 +668,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -649,6 +694,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -670,6 +720,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -691,6 +746,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -712,6 +772,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -733,6 +798,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -754,6 +824,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -775,6 +850,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -796,6 +876,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -817,6 +902,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -838,6 +928,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -859,6 +954,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -880,6 +980,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -901,6 +1006,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -922,6 +1032,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -943,6 +1058,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -964,6 +1084,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -985,6 +1110,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1006,6 +1136,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1027,6 +1162,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1048,6 +1188,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1069,6 +1214,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1090,6 +1240,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1111,6 +1266,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1132,6 +1292,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1153,6 +1318,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1174,6 +1344,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1195,6 +1370,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1216,6 +1396,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1237,6 +1422,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1258,6 +1448,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1279,6 +1474,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1300,6 +1500,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1321,6 +1526,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1342,6 +1552,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1363,6 +1578,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1384,6 +1604,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1405,6 +1630,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1426,6 +1656,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1447,6 +1682,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1468,6 +1708,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1489,6 +1734,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1510,6 +1760,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1531,6 +1786,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1552,6 +1812,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1573,6 +1838,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1594,6 +1864,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1615,6 +1890,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1636,6 +1916,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -1657,6 +1942,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -1678,6 +1968,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -1699,6 +1994,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -1720,6 +2020,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -1741,6 +2046,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -1762,6 +2072,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -1783,6 +2098,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -1804,6 +2124,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -1825,6 +2150,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -1846,6 +2176,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -1867,6 +2202,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -1888,6 +2228,11 @@
           <t>f__Propionibacteriaceae</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -1905,6 +2250,11 @@
         <v>0.9331483760251025</v>
       </c>
       <c r="E70" t="inlineStr">
+        <is>
+          <t>f__Propionibacteriaceae</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
         <is>
           <t>f__Propionibacteriaceae</t>
         </is>
